--- a/biology/Histoire de la zoologie et de la botanique/Albert_Schwartz_(zoologiste)/Albert_Schwartz_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Schwartz_(zoologiste)/Albert_Schwartz_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Schwartz (1923-1992) était un herpétologiste américain, découvreur de nombreuses espèces de geckos et de grenouilles. Il était un spécialiste de la faune des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eleutherodactylus schwartzi Thomas, 1966
 Anolis wattsi schwartzi Lazell, 1972
@@ -546,7 +560,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ameiva leberi Schwartz &amp; Klinikowski, 1966
@@ -675,7 +691,9 @@
           <t>Référence biographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Duellman, Thomas &amp; Henderson, 1993 : Albert Schwartz, 13 Sept. 1923-18 Oct. 1992. Copeia, vol. 1993, n. 3, p. 927-932.
 Schwartz est l’abréviation habituelle de Albert Schwartz en zoologie.
